--- a/data_raw/Dataset.xlsx
+++ b/data_raw/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyastrydom/Documents/Uni/Uni/Thesis/ForestMicroclim/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB419B9-3AC7-9547-A1EE-2E20A6BCB83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6FDC33-141E-1A47-A414-0D94C6B33B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0AD33F6C-2F77-AD46-8804-76E63C7D8230}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{0AD33F6C-2F77-AD46-8804-76E63C7D8230}"/>
   </bookViews>
   <sheets>
     <sheet name="Linnea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="369">
   <si>
     <t>Site</t>
   </si>
@@ -1231,10 +1231,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1567,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00BDBA7-A10B-F14A-9352-05928FEAF20C}">
   <dimension ref="A1:D569"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -12964,13 +12963,13 @@
       <c r="B201">
         <v>7</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="7">
         <v>5</v>
       </c>
-      <c r="D201" s="8">
-        <v>4</v>
-      </c>
-      <c r="E201" s="8">
+      <c r="D201" s="7">
+        <v>4</v>
+      </c>
+      <c r="E201" s="7">
         <v>1</v>
       </c>
     </row>
@@ -12984,10 +12983,10 @@
       <c r="C202">
         <v>10</v>
       </c>
-      <c r="D202" s="8">
-        <v>3</v>
-      </c>
-      <c r="E202" s="8">
+      <c r="D202" s="7">
+        <v>3</v>
+      </c>
+      <c r="E202" s="7">
         <v>2</v>
       </c>
     </row>
@@ -13001,10 +13000,10 @@
       <c r="C203">
         <v>6</v>
       </c>
-      <c r="D203" s="8">
-        <v>1</v>
-      </c>
-      <c r="E203" s="8">
+      <c r="D203" s="7">
+        <v>1</v>
+      </c>
+      <c r="E203" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13018,10 +13017,10 @@
       <c r="C204">
         <v>5</v>
       </c>
-      <c r="D204" s="8">
-        <v>3</v>
-      </c>
-      <c r="E204" s="8">
+      <c r="D204" s="7">
+        <v>3</v>
+      </c>
+      <c r="E204" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13035,10 +13034,10 @@
       <c r="C205">
         <v>10</v>
       </c>
-      <c r="D205" s="8">
-        <v>4</v>
-      </c>
-      <c r="E205" s="8">
+      <c r="D205" s="7">
+        <v>4</v>
+      </c>
+      <c r="E205" s="7">
         <v>3</v>
       </c>
     </row>
@@ -13052,10 +13051,10 @@
       <c r="C206">
         <v>4</v>
       </c>
-      <c r="D206" s="8">
-        <v>1</v>
-      </c>
-      <c r="E206" s="8">
+      <c r="D206" s="7">
+        <v>1</v>
+      </c>
+      <c r="E206" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13069,10 +13068,10 @@
       <c r="C207">
         <v>6</v>
       </c>
-      <c r="D207" s="8">
-        <v>2</v>
-      </c>
-      <c r="E207" s="8">
+      <c r="D207" s="7">
+        <v>2</v>
+      </c>
+      <c r="E207" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13086,10 +13085,10 @@
       <c r="C208">
         <v>1</v>
       </c>
-      <c r="D208" s="8">
-        <v>1</v>
-      </c>
-      <c r="E208" s="8">
+      <c r="D208" s="7">
+        <v>1</v>
+      </c>
+      <c r="E208" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13103,10 +13102,10 @@
       <c r="C209">
         <v>5</v>
       </c>
-      <c r="D209" s="8">
-        <v>3</v>
-      </c>
-      <c r="E209" s="8">
+      <c r="D209" s="7">
+        <v>3</v>
+      </c>
+      <c r="E209" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13120,10 +13119,10 @@
       <c r="C210">
         <v>1</v>
       </c>
-      <c r="D210" s="8">
-        <v>1</v>
-      </c>
-      <c r="E210" s="8">
+      <c r="D210" s="7">
+        <v>1</v>
+      </c>
+      <c r="E210" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13137,10 +13136,10 @@
       <c r="C211">
         <v>9</v>
       </c>
-      <c r="D211" s="8">
-        <v>3</v>
-      </c>
-      <c r="E211" s="8">
+      <c r="D211" s="7">
+        <v>3</v>
+      </c>
+      <c r="E211" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13154,10 +13153,10 @@
       <c r="C212">
         <v>3</v>
       </c>
-      <c r="D212" s="8">
-        <v>3</v>
-      </c>
-      <c r="E212" s="8">
+      <c r="D212" s="7">
+        <v>3</v>
+      </c>
+      <c r="E212" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13171,10 +13170,10 @@
       <c r="C213">
         <v>11</v>
       </c>
-      <c r="D213" s="8">
-        <v>1</v>
-      </c>
-      <c r="E213" s="8">
+      <c r="D213" s="7">
+        <v>1</v>
+      </c>
+      <c r="E213" s="7">
         <v>2</v>
       </c>
     </row>
@@ -13188,10 +13187,10 @@
       <c r="C214">
         <v>17</v>
       </c>
-      <c r="D214" s="8">
-        <v>2</v>
-      </c>
-      <c r="E214" s="8">
+      <c r="D214" s="7">
+        <v>2</v>
+      </c>
+      <c r="E214" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13273,10 +13272,10 @@
       <c r="C219">
         <v>5</v>
       </c>
-      <c r="D219" s="8">
-        <v>2</v>
-      </c>
-      <c r="E219" s="8">
+      <c r="D219" s="7">
+        <v>2</v>
+      </c>
+      <c r="E219" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13290,10 +13289,10 @@
       <c r="C220">
         <v>13</v>
       </c>
-      <c r="D220" s="8">
-        <v>4</v>
-      </c>
-      <c r="E220" s="8">
+      <c r="D220" s="7">
+        <v>4</v>
+      </c>
+      <c r="E220" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13307,10 +13306,10 @@
       <c r="C221">
         <v>6</v>
       </c>
-      <c r="D221" s="8">
-        <v>2</v>
-      </c>
-      <c r="E221" s="8">
+      <c r="D221" s="7">
+        <v>2</v>
+      </c>
+      <c r="E221" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13324,10 +13323,10 @@
       <c r="C222">
         <v>7</v>
       </c>
-      <c r="D222" s="8">
-        <v>2</v>
-      </c>
-      <c r="E222" s="8">
+      <c r="D222" s="7">
+        <v>2</v>
+      </c>
+      <c r="E222" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13341,10 +13340,10 @@
       <c r="C223">
         <v>5</v>
       </c>
-      <c r="D223" s="8">
-        <v>3</v>
-      </c>
-      <c r="E223" s="8">
+      <c r="D223" s="7">
+        <v>3</v>
+      </c>
+      <c r="E223" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13358,10 +13357,10 @@
       <c r="C224">
         <v>6</v>
       </c>
-      <c r="D224" s="8">
-        <v>3</v>
-      </c>
-      <c r="E224" s="8">
+      <c r="D224" s="7">
+        <v>3</v>
+      </c>
+      <c r="E224" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13375,10 +13374,10 @@
       <c r="C225">
         <v>10</v>
       </c>
-      <c r="D225" s="8">
-        <v>3</v>
-      </c>
-      <c r="E225" s="8">
+      <c r="D225" s="7">
+        <v>3</v>
+      </c>
+      <c r="E225" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13392,10 +13391,10 @@
       <c r="C226">
         <v>8</v>
       </c>
-      <c r="D226" s="8">
-        <v>4</v>
-      </c>
-      <c r="E226" s="8">
+      <c r="D226" s="7">
+        <v>4</v>
+      </c>
+      <c r="E226" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13409,10 +13408,10 @@
       <c r="C227">
         <v>7</v>
       </c>
-      <c r="D227" s="8">
-        <v>3</v>
-      </c>
-      <c r="E227" s="8">
+      <c r="D227" s="7">
+        <v>3</v>
+      </c>
+      <c r="E227" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13426,10 +13425,10 @@
       <c r="C228">
         <v>10</v>
       </c>
-      <c r="D228" s="8">
-        <v>2</v>
-      </c>
-      <c r="E228" s="8">
+      <c r="D228" s="7">
+        <v>2</v>
+      </c>
+      <c r="E228" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13443,10 +13442,10 @@
       <c r="C229">
         <v>13</v>
       </c>
-      <c r="D229" s="8">
-        <v>2</v>
-      </c>
-      <c r="E229" s="8">
+      <c r="D229" s="7">
+        <v>2</v>
+      </c>
+      <c r="E229" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13460,10 +13459,10 @@
       <c r="C230">
         <v>12</v>
       </c>
-      <c r="D230" s="8">
-        <v>3</v>
-      </c>
-      <c r="E230" s="8">
+      <c r="D230" s="7">
+        <v>3</v>
+      </c>
+      <c r="E230" s="7">
         <v>3</v>
       </c>
     </row>
@@ -13477,10 +13476,10 @@
       <c r="C231">
         <v>7</v>
       </c>
-      <c r="D231" s="8">
-        <v>1</v>
-      </c>
-      <c r="E231" s="8">
+      <c r="D231" s="7">
+        <v>1</v>
+      </c>
+      <c r="E231" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13494,10 +13493,10 @@
       <c r="C232">
         <v>7</v>
       </c>
-      <c r="D232" s="8">
-        <v>2</v>
-      </c>
-      <c r="E232" s="8">
+      <c r="D232" s="7">
+        <v>2</v>
+      </c>
+      <c r="E232" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13511,10 +13510,10 @@
       <c r="C233">
         <v>13</v>
       </c>
-      <c r="D233" s="8">
-        <v>3</v>
-      </c>
-      <c r="E233" s="8">
+      <c r="D233" s="7">
+        <v>3</v>
+      </c>
+      <c r="E233" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13528,10 +13527,10 @@
       <c r="C234">
         <v>20</v>
       </c>
-      <c r="D234" s="8">
-        <v>4</v>
-      </c>
-      <c r="E234" s="8">
+      <c r="D234" s="7">
+        <v>4</v>
+      </c>
+      <c r="E234" s="7">
         <v>2</v>
       </c>
     </row>
@@ -13545,10 +13544,10 @@
       <c r="C235">
         <v>3</v>
       </c>
-      <c r="D235" s="8">
-        <v>1</v>
-      </c>
-      <c r="E235" s="8">
+      <c r="D235" s="7">
+        <v>1</v>
+      </c>
+      <c r="E235" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13562,10 +13561,10 @@
       <c r="C236">
         <v>7</v>
       </c>
-      <c r="D236" s="8">
-        <v>2</v>
-      </c>
-      <c r="E236" s="8">
+      <c r="D236" s="7">
+        <v>2</v>
+      </c>
+      <c r="E236" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13579,10 +13578,10 @@
       <c r="C237">
         <v>14</v>
       </c>
-      <c r="D237" s="8">
-        <v>3</v>
-      </c>
-      <c r="E237" s="8">
+      <c r="D237" s="7">
+        <v>3</v>
+      </c>
+      <c r="E237" s="7">
         <v>5</v>
       </c>
     </row>
@@ -13596,10 +13595,10 @@
       <c r="C238">
         <v>9</v>
       </c>
-      <c r="D238" s="8">
-        <v>2</v>
-      </c>
-      <c r="E238" s="8">
+      <c r="D238" s="7">
+        <v>2</v>
+      </c>
+      <c r="E238" s="7">
         <v>4</v>
       </c>
     </row>
@@ -13613,10 +13612,10 @@
       <c r="C239">
         <v>30</v>
       </c>
-      <c r="D239" s="8">
+      <c r="D239" s="7">
         <v>7</v>
       </c>
-      <c r="E239" s="8">
+      <c r="E239" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13630,10 +13629,10 @@
       <c r="C240">
         <v>19</v>
       </c>
-      <c r="D240" s="8">
+      <c r="D240" s="7">
         <v>6</v>
       </c>
-      <c r="E240" s="8">
+      <c r="E240" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13647,10 +13646,10 @@
       <c r="C241">
         <v>22</v>
       </c>
-      <c r="D241" s="8">
-        <v>3</v>
-      </c>
-      <c r="E241" s="8">
+      <c r="D241" s="7">
+        <v>3</v>
+      </c>
+      <c r="E241" s="7">
         <v>3</v>
       </c>
     </row>
@@ -13664,10 +13663,10 @@
       <c r="C242">
         <v>10</v>
       </c>
-      <c r="D242" s="8">
-        <v>4</v>
-      </c>
-      <c r="E242" s="8">
+      <c r="D242" s="7">
+        <v>4</v>
+      </c>
+      <c r="E242" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13681,10 +13680,10 @@
       <c r="C243">
         <v>4</v>
       </c>
-      <c r="D243" s="8">
-        <v>3</v>
-      </c>
-      <c r="E243" s="8">
+      <c r="D243" s="7">
+        <v>3</v>
+      </c>
+      <c r="E243" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13698,10 +13697,10 @@
       <c r="C244">
         <v>8</v>
       </c>
-      <c r="D244" s="8">
-        <v>2</v>
-      </c>
-      <c r="E244" s="8">
+      <c r="D244" s="7">
+        <v>2</v>
+      </c>
+      <c r="E244" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13715,10 +13714,10 @@
       <c r="C245">
         <v>41</v>
       </c>
-      <c r="D245" s="8">
-        <v>4</v>
-      </c>
-      <c r="E245" s="8">
+      <c r="D245" s="7">
+        <v>4</v>
+      </c>
+      <c r="E245" s="7">
         <v>3</v>
       </c>
     </row>
@@ -13732,10 +13731,10 @@
       <c r="C246">
         <v>10</v>
       </c>
-      <c r="D246" s="8">
-        <v>3</v>
-      </c>
-      <c r="E246" s="8">
+      <c r="D246" s="7">
+        <v>3</v>
+      </c>
+      <c r="E246" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13749,10 +13748,10 @@
       <c r="C247">
         <v>13</v>
       </c>
-      <c r="D247" s="8">
-        <v>4</v>
-      </c>
-      <c r="E247" s="8">
+      <c r="D247" s="7">
+        <v>4</v>
+      </c>
+      <c r="E247" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13766,10 +13765,10 @@
       <c r="C248">
         <v>11</v>
       </c>
-      <c r="D248" s="8">
-        <v>2</v>
-      </c>
-      <c r="E248" s="8">
+      <c r="D248" s="7">
+        <v>2</v>
+      </c>
+      <c r="E248" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13783,10 +13782,10 @@
       <c r="C249">
         <v>17</v>
       </c>
-      <c r="D249" s="8">
-        <v>3</v>
-      </c>
-      <c r="E249" s="8">
+      <c r="D249" s="7">
+        <v>3</v>
+      </c>
+      <c r="E249" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13800,10 +13799,10 @@
       <c r="C250">
         <v>29</v>
       </c>
-      <c r="D250" s="8">
+      <c r="D250" s="7">
         <v>5</v>
       </c>
-      <c r="E250" s="8">
+      <c r="E250" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13817,10 +13816,10 @@
       <c r="C251">
         <v>17</v>
       </c>
-      <c r="D251" s="8">
+      <c r="D251" s="7">
         <v>5</v>
       </c>
-      <c r="E251" s="8">
+      <c r="E251" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13834,10 +13833,10 @@
       <c r="C252">
         <v>14</v>
       </c>
-      <c r="D252" s="8">
-        <v>3</v>
-      </c>
-      <c r="E252" s="8">
+      <c r="D252" s="7">
+        <v>3</v>
+      </c>
+      <c r="E252" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13851,10 +13850,10 @@
       <c r="C253">
         <v>7</v>
       </c>
-      <c r="D253" s="8">
-        <v>3</v>
-      </c>
-      <c r="E253" s="8">
+      <c r="D253" s="7">
+        <v>3</v>
+      </c>
+      <c r="E253" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13868,10 +13867,10 @@
       <c r="C254">
         <v>16</v>
       </c>
-      <c r="D254" s="8">
+      <c r="D254" s="7">
         <v>5</v>
       </c>
-      <c r="E254" s="8">
+      <c r="E254" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13885,10 +13884,10 @@
       <c r="C255">
         <v>9</v>
       </c>
-      <c r="D255" s="8">
-        <v>4</v>
-      </c>
-      <c r="E255" s="8">
+      <c r="D255" s="7">
+        <v>4</v>
+      </c>
+      <c r="E255" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13902,10 +13901,10 @@
       <c r="C256">
         <v>14</v>
       </c>
-      <c r="D256" s="8">
+      <c r="D256" s="7">
         <v>5</v>
       </c>
-      <c r="E256" s="8">
+      <c r="E256" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13919,10 +13918,10 @@
       <c r="C257">
         <v>7</v>
       </c>
-      <c r="D257" s="8">
-        <v>1</v>
-      </c>
-      <c r="E257" s="8">
+      <c r="D257" s="7">
+        <v>1</v>
+      </c>
+      <c r="E257" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13936,10 +13935,10 @@
       <c r="C258">
         <v>9</v>
       </c>
-      <c r="D258" s="8">
-        <v>4</v>
-      </c>
-      <c r="E258" s="8">
+      <c r="D258" s="7">
+        <v>4</v>
+      </c>
+      <c r="E258" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13953,10 +13952,10 @@
       <c r="C259">
         <v>9</v>
       </c>
-      <c r="D259" s="8">
-        <v>2</v>
-      </c>
-      <c r="E259" s="8">
+      <c r="D259" s="7">
+        <v>2</v>
+      </c>
+      <c r="E259" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13970,10 +13969,10 @@
       <c r="C260">
         <v>5</v>
       </c>
-      <c r="D260" s="8">
-        <v>2</v>
-      </c>
-      <c r="E260" s="8">
+      <c r="D260" s="7">
+        <v>2</v>
+      </c>
+      <c r="E260" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13987,10 +13986,10 @@
       <c r="C261">
         <v>7</v>
       </c>
-      <c r="D261" s="8">
-        <v>2</v>
-      </c>
-      <c r="E261" s="8">
+      <c r="D261" s="7">
+        <v>2</v>
+      </c>
+      <c r="E261" s="7">
         <v>2</v>
       </c>
     </row>
@@ -14004,10 +14003,10 @@
       <c r="C262">
         <v>7</v>
       </c>
-      <c r="D262" s="8">
-        <v>4</v>
-      </c>
-      <c r="E262" s="8">
+      <c r="D262" s="7">
+        <v>4</v>
+      </c>
+      <c r="E262" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14021,10 +14020,10 @@
       <c r="C263">
         <v>6</v>
       </c>
-      <c r="D263" s="8">
-        <v>2</v>
-      </c>
-      <c r="E263" s="8">
+      <c r="D263" s="7">
+        <v>2</v>
+      </c>
+      <c r="E263" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14038,10 +14037,10 @@
       <c r="C264">
         <v>3</v>
       </c>
-      <c r="D264" s="8">
-        <v>1</v>
-      </c>
-      <c r="E264" s="8">
+      <c r="D264" s="7">
+        <v>1</v>
+      </c>
+      <c r="E264" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14055,10 +14054,10 @@
       <c r="C265">
         <v>2</v>
       </c>
-      <c r="D265" s="8">
-        <v>1</v>
-      </c>
-      <c r="E265" s="8">
+      <c r="D265" s="7">
+        <v>1</v>
+      </c>
+      <c r="E265" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14072,10 +14071,10 @@
       <c r="C266">
         <v>3</v>
       </c>
-      <c r="D266" s="8">
-        <v>2</v>
-      </c>
-      <c r="E266" s="8">
+      <c r="D266" s="7">
+        <v>2</v>
+      </c>
+      <c r="E266" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14089,10 +14088,10 @@
       <c r="C267">
         <v>3</v>
       </c>
-      <c r="D267" s="8">
-        <v>1</v>
-      </c>
-      <c r="E267" s="8">
+      <c r="D267" s="7">
+        <v>1</v>
+      </c>
+      <c r="E267" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14106,10 +14105,10 @@
       <c r="C268">
         <v>3</v>
       </c>
-      <c r="D268" s="8">
-        <v>1</v>
-      </c>
-      <c r="E268" s="8">
+      <c r="D268" s="7">
+        <v>1</v>
+      </c>
+      <c r="E268" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14123,10 +14122,10 @@
       <c r="C269">
         <v>4</v>
       </c>
-      <c r="D269" s="8">
-        <v>1</v>
-      </c>
-      <c r="E269" s="8">
+      <c r="D269" s="7">
+        <v>1</v>
+      </c>
+      <c r="E269" s="7">
         <v>2</v>
       </c>
     </row>
@@ -14140,10 +14139,10 @@
       <c r="C270">
         <v>3</v>
       </c>
-      <c r="D270" s="8">
-        <v>1</v>
-      </c>
-      <c r="E270" s="8">
+      <c r="D270" s="7">
+        <v>1</v>
+      </c>
+      <c r="E270" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14157,10 +14156,10 @@
       <c r="C271">
         <v>13</v>
       </c>
-      <c r="D271" s="8">
-        <v>1</v>
-      </c>
-      <c r="E271" s="8">
+      <c r="D271" s="7">
+        <v>1</v>
+      </c>
+      <c r="E271" s="7">
         <v>2</v>
       </c>
     </row>
@@ -14174,10 +14173,10 @@
       <c r="C272">
         <v>37</v>
       </c>
-      <c r="D272" s="8">
-        <v>1</v>
-      </c>
-      <c r="E272" s="8">
+      <c r="D272" s="7">
+        <v>1</v>
+      </c>
+      <c r="E272" s="7">
         <v>4</v>
       </c>
     </row>
@@ -14191,10 +14190,10 @@
       <c r="C273">
         <v>23</v>
       </c>
-      <c r="D273" s="8">
-        <v>1</v>
-      </c>
-      <c r="E273" s="8">
+      <c r="D273" s="7">
+        <v>1</v>
+      </c>
+      <c r="E273" s="7">
         <v>5</v>
       </c>
     </row>
@@ -14208,10 +14207,10 @@
       <c r="C274">
         <v>38</v>
       </c>
-      <c r="D274" s="8">
-        <v>1</v>
-      </c>
-      <c r="E274" s="8">
+      <c r="D274" s="7">
+        <v>1</v>
+      </c>
+      <c r="E274" s="7">
         <v>5</v>
       </c>
     </row>
@@ -14225,10 +14224,10 @@
       <c r="C275">
         <v>57</v>
       </c>
-      <c r="D275" s="8">
-        <v>1</v>
-      </c>
-      <c r="E275" s="8">
+      <c r="D275" s="7">
+        <v>1</v>
+      </c>
+      <c r="E275" s="7">
         <v>6</v>
       </c>
     </row>
@@ -14242,10 +14241,10 @@
       <c r="C276">
         <v>61</v>
       </c>
-      <c r="D276" s="8">
-        <v>1</v>
-      </c>
-      <c r="E276" s="8">
+      <c r="D276" s="7">
+        <v>1</v>
+      </c>
+      <c r="E276" s="7">
         <v>7</v>
       </c>
     </row>
@@ -14259,10 +14258,10 @@
       <c r="C277">
         <v>42</v>
       </c>
-      <c r="D277" s="8">
-        <v>1</v>
-      </c>
-      <c r="E277" s="8">
+      <c r="D277" s="7">
+        <v>1</v>
+      </c>
+      <c r="E277" s="7">
         <v>5</v>
       </c>
     </row>
@@ -14276,10 +14275,10 @@
       <c r="C278">
         <v>15</v>
       </c>
-      <c r="D278" s="8">
-        <v>1</v>
-      </c>
-      <c r="E278" s="8">
+      <c r="D278" s="7">
+        <v>1</v>
+      </c>
+      <c r="E278" s="7">
         <v>3</v>
       </c>
     </row>
@@ -14293,10 +14292,10 @@
       <c r="C279">
         <v>9</v>
       </c>
-      <c r="D279" s="8">
-        <v>1</v>
-      </c>
-      <c r="E279" s="8">
+      <c r="D279" s="7">
+        <v>1</v>
+      </c>
+      <c r="E279" s="7">
         <v>4</v>
       </c>
     </row>
@@ -14310,10 +14309,10 @@
       <c r="C280">
         <v>28</v>
       </c>
-      <c r="D280" s="8">
-        <v>1</v>
-      </c>
-      <c r="E280" s="8">
+      <c r="D280" s="7">
+        <v>1</v>
+      </c>
+      <c r="E280" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14327,10 +14326,10 @@
       <c r="C281">
         <v>3</v>
       </c>
-      <c r="D281" s="8">
-        <v>1</v>
-      </c>
-      <c r="E281" s="8">
+      <c r="D281" s="7">
+        <v>1</v>
+      </c>
+      <c r="E281" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14684,10 +14683,10 @@
       <c r="C302">
         <v>14</v>
       </c>
-      <c r="D302" s="8">
-        <v>1</v>
-      </c>
-      <c r="E302" s="8">
+      <c r="D302" s="7">
+        <v>1</v>
+      </c>
+      <c r="E302" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14701,10 +14700,10 @@
       <c r="C303">
         <v>6</v>
       </c>
-      <c r="D303" s="8">
-        <v>1</v>
-      </c>
-      <c r="E303" s="8">
+      <c r="D303" s="7">
+        <v>1</v>
+      </c>
+      <c r="E303" s="7">
         <v>2</v>
       </c>
     </row>
@@ -14718,10 +14717,10 @@
       <c r="C304">
         <v>15</v>
       </c>
-      <c r="D304" s="8">
-        <v>1</v>
-      </c>
-      <c r="E304" s="8">
+      <c r="D304" s="7">
+        <v>1</v>
+      </c>
+      <c r="E304" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14735,10 +14734,10 @@
       <c r="C305">
         <v>17</v>
       </c>
-      <c r="D305" s="8">
-        <v>1</v>
-      </c>
-      <c r="E305" s="8">
+      <c r="D305" s="7">
+        <v>1</v>
+      </c>
+      <c r="E305" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14752,10 +14751,10 @@
       <c r="C306">
         <v>18</v>
       </c>
-      <c r="D306" s="8">
-        <v>4</v>
-      </c>
-      <c r="E306" s="8">
+      <c r="D306" s="7">
+        <v>4</v>
+      </c>
+      <c r="E306" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14769,10 +14768,10 @@
       <c r="C307">
         <v>20</v>
       </c>
-      <c r="D307" s="8">
+      <c r="D307" s="7">
         <v>5</v>
       </c>
-      <c r="E307" s="8">
+      <c r="E307" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14786,10 +14785,10 @@
       <c r="C308">
         <v>10</v>
       </c>
-      <c r="D308" s="8">
-        <v>2</v>
-      </c>
-      <c r="E308" s="8">
+      <c r="D308" s="7">
+        <v>2</v>
+      </c>
+      <c r="E308" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14803,10 +14802,10 @@
       <c r="C309">
         <v>12</v>
       </c>
-      <c r="D309" s="8">
-        <v>2</v>
-      </c>
-      <c r="E309" s="8">
+      <c r="D309" s="7">
+        <v>2</v>
+      </c>
+      <c r="E309" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14820,10 +14819,10 @@
       <c r="C310">
         <v>7</v>
       </c>
-      <c r="D310" s="8">
-        <v>2</v>
-      </c>
-      <c r="E310" s="8">
+      <c r="D310" s="7">
+        <v>2</v>
+      </c>
+      <c r="E310" s="7">
         <v>3</v>
       </c>
     </row>
@@ -14837,10 +14836,10 @@
       <c r="C311">
         <v>10</v>
       </c>
-      <c r="D311" s="8">
-        <v>1</v>
-      </c>
-      <c r="E311" s="8">
+      <c r="D311" s="7">
+        <v>1</v>
+      </c>
+      <c r="E311" s="7">
         <v>2</v>
       </c>
     </row>
@@ -14854,10 +14853,10 @@
       <c r="C312">
         <v>18</v>
       </c>
-      <c r="D312" s="8">
-        <v>1</v>
-      </c>
-      <c r="E312" s="8">
+      <c r="D312" s="7">
+        <v>1</v>
+      </c>
+      <c r="E312" s="7">
         <v>8</v>
       </c>
     </row>
@@ -14871,10 +14870,10 @@
       <c r="C313">
         <v>18</v>
       </c>
-      <c r="D313" s="8">
+      <c r="D313" s="7">
         <v>5</v>
       </c>
-      <c r="E313" s="8">
+      <c r="E313" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14888,10 +14887,10 @@
       <c r="C314">
         <v>10</v>
       </c>
-      <c r="D314" s="8">
-        <v>3</v>
-      </c>
-      <c r="E314" s="8">
+      <c r="D314" s="7">
+        <v>3</v>
+      </c>
+      <c r="E314" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14905,10 +14904,10 @@
       <c r="C315">
         <v>19</v>
       </c>
-      <c r="D315" s="8">
-        <v>1</v>
-      </c>
-      <c r="E315" s="8">
+      <c r="D315" s="7">
+        <v>1</v>
+      </c>
+      <c r="E315" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14922,10 +14921,10 @@
       <c r="C316">
         <v>5</v>
       </c>
-      <c r="D316" s="8">
-        <v>1</v>
-      </c>
-      <c r="E316" s="8">
+      <c r="D316" s="7">
+        <v>1</v>
+      </c>
+      <c r="E316" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14939,10 +14938,10 @@
       <c r="C317">
         <v>13</v>
       </c>
-      <c r="D317" s="8">
-        <v>3</v>
-      </c>
-      <c r="E317" s="8">
+      <c r="D317" s="7">
+        <v>3</v>
+      </c>
+      <c r="E317" s="7">
         <v>2</v>
       </c>
     </row>
@@ -14956,10 +14955,10 @@
       <c r="C318">
         <v>27</v>
       </c>
-      <c r="D318" s="8">
-        <v>3</v>
-      </c>
-      <c r="E318" s="8">
+      <c r="D318" s="7">
+        <v>3</v>
+      </c>
+      <c r="E318" s="7">
         <v>7</v>
       </c>
     </row>
@@ -14973,10 +14972,10 @@
       <c r="C319">
         <v>3</v>
       </c>
-      <c r="D319" s="8">
-        <v>1</v>
-      </c>
-      <c r="E319" s="8">
+      <c r="D319" s="7">
+        <v>1</v>
+      </c>
+      <c r="E319" s="7">
         <v>0</v>
       </c>
     </row>
@@ -14990,10 +14989,10 @@
       <c r="C320">
         <v>7</v>
       </c>
-      <c r="D320" s="8">
-        <v>2</v>
-      </c>
-      <c r="E320" s="8">
+      <c r="D320" s="7">
+        <v>2</v>
+      </c>
+      <c r="E320" s="7">
         <v>1</v>
       </c>
     </row>
@@ -15007,10 +15006,10 @@
       <c r="C321">
         <v>11</v>
       </c>
-      <c r="D321" s="8">
-        <v>2</v>
-      </c>
-      <c r="E321" s="8">
+      <c r="D321" s="7">
+        <v>2</v>
+      </c>
+      <c r="E321" s="7">
         <v>3</v>
       </c>
     </row>
@@ -15024,10 +15023,10 @@
       <c r="C322">
         <v>4</v>
       </c>
-      <c r="D322" s="8">
-        <v>1</v>
-      </c>
-      <c r="E322" s="8">
+      <c r="D322" s="7">
+        <v>1</v>
+      </c>
+      <c r="E322" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15041,10 +15040,10 @@
       <c r="C323">
         <v>15</v>
       </c>
-      <c r="D323" s="3">
+      <c r="D323" s="2">
         <v>5</v>
       </c>
-      <c r="E323" s="8">
+      <c r="E323" s="7">
         <v>2</v>
       </c>
     </row>
@@ -15058,10 +15057,10 @@
       <c r="C324">
         <v>17</v>
       </c>
-      <c r="D324" s="8">
-        <v>3</v>
-      </c>
-      <c r="E324" s="8">
+      <c r="D324" s="7">
+        <v>3</v>
+      </c>
+      <c r="E324" s="7">
         <v>2</v>
       </c>
     </row>
@@ -15075,10 +15074,10 @@
       <c r="C325">
         <v>12</v>
       </c>
-      <c r="D325" s="8">
-        <v>2</v>
-      </c>
-      <c r="E325" s="8">
+      <c r="D325" s="7">
+        <v>2</v>
+      </c>
+      <c r="E325" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15092,10 +15091,10 @@
       <c r="C326">
         <v>8</v>
       </c>
-      <c r="D326" s="8">
-        <v>3</v>
-      </c>
-      <c r="E326" s="8">
+      <c r="D326" s="7">
+        <v>3</v>
+      </c>
+      <c r="E326" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15109,10 +15108,10 @@
       <c r="C327">
         <v>7</v>
       </c>
-      <c r="D327" s="8">
-        <v>1</v>
-      </c>
-      <c r="E327" s="8">
+      <c r="D327" s="7">
+        <v>1</v>
+      </c>
+      <c r="E327" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15126,10 +15125,10 @@
       <c r="C328">
         <v>5</v>
       </c>
-      <c r="D328" s="8">
-        <v>2</v>
-      </c>
-      <c r="E328" s="8">
+      <c r="D328" s="7">
+        <v>2</v>
+      </c>
+      <c r="E328" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15143,10 +15142,10 @@
       <c r="C329">
         <v>9</v>
       </c>
-      <c r="D329" s="8">
-        <v>2</v>
-      </c>
-      <c r="E329" s="8">
+      <c r="D329" s="7">
+        <v>2</v>
+      </c>
+      <c r="E329" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15160,10 +15159,10 @@
       <c r="C330">
         <v>12</v>
       </c>
-      <c r="D330" s="8">
-        <v>2</v>
-      </c>
-      <c r="E330" s="8">
+      <c r="D330" s="7">
+        <v>2</v>
+      </c>
+      <c r="E330" s="7">
         <v>1</v>
       </c>
     </row>
@@ -15177,10 +15176,10 @@
       <c r="C331">
         <v>12</v>
       </c>
-      <c r="D331" s="8">
-        <v>4</v>
-      </c>
-      <c r="E331" s="8">
+      <c r="D331" s="7">
+        <v>4</v>
+      </c>
+      <c r="E331" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15194,10 +15193,10 @@
       <c r="C332">
         <v>4</v>
       </c>
-      <c r="D332" s="8">
-        <v>1</v>
-      </c>
-      <c r="E332" s="8">
+      <c r="D332" s="7">
+        <v>1</v>
+      </c>
+      <c r="E332" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15211,10 +15210,10 @@
       <c r="C333">
         <v>9</v>
       </c>
-      <c r="D333" s="8">
-        <v>1</v>
-      </c>
-      <c r="E333" s="8">
+      <c r="D333" s="7">
+        <v>1</v>
+      </c>
+      <c r="E333" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15228,10 +15227,10 @@
       <c r="C334">
         <v>6</v>
       </c>
-      <c r="D334" s="8">
-        <v>1</v>
-      </c>
-      <c r="E334" s="8">
+      <c r="D334" s="7">
+        <v>1</v>
+      </c>
+      <c r="E334" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15245,10 +15244,10 @@
       <c r="C335">
         <v>9</v>
       </c>
-      <c r="D335" s="8">
-        <v>3</v>
-      </c>
-      <c r="E335" s="8">
+      <c r="D335" s="7">
+        <v>3</v>
+      </c>
+      <c r="E335" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15262,10 +15261,10 @@
       <c r="C336">
         <v>17</v>
       </c>
-      <c r="D336" s="8">
-        <v>3</v>
-      </c>
-      <c r="E336" s="8">
+      <c r="D336" s="7">
+        <v>3</v>
+      </c>
+      <c r="E336" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15279,10 +15278,10 @@
       <c r="C337">
         <v>4</v>
       </c>
-      <c r="D337" s="8">
-        <v>2</v>
-      </c>
-      <c r="E337" s="8">
+      <c r="D337" s="7">
+        <v>2</v>
+      </c>
+      <c r="E337" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15296,10 +15295,10 @@
       <c r="C338">
         <v>4</v>
       </c>
-      <c r="D338" s="8">
-        <v>2</v>
-      </c>
-      <c r="E338" s="8">
+      <c r="D338" s="7">
+        <v>2</v>
+      </c>
+      <c r="E338" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15313,10 +15312,10 @@
       <c r="C339">
         <v>4</v>
       </c>
-      <c r="D339" s="8">
-        <v>2</v>
-      </c>
-      <c r="E339" s="8">
+      <c r="D339" s="7">
+        <v>2</v>
+      </c>
+      <c r="E339" s="7">
         <v>1</v>
       </c>
     </row>
@@ -15330,10 +15329,10 @@
       <c r="C340">
         <v>8</v>
       </c>
-      <c r="D340" s="8">
-        <v>3</v>
-      </c>
-      <c r="E340" s="8">
+      <c r="D340" s="7">
+        <v>3</v>
+      </c>
+      <c r="E340" s="7">
         <v>4</v>
       </c>
     </row>
@@ -15347,10 +15346,10 @@
       <c r="C341">
         <v>16</v>
       </c>
-      <c r="D341" s="8">
-        <v>4</v>
-      </c>
-      <c r="E341" s="8">
+      <c r="D341" s="7">
+        <v>4</v>
+      </c>
+      <c r="E341" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15364,10 +15363,10 @@
       <c r="C342">
         <v>4</v>
       </c>
-      <c r="D342" s="8">
-        <v>1</v>
-      </c>
-      <c r="E342" s="8">
+      <c r="D342" s="7">
+        <v>1</v>
+      </c>
+      <c r="E342" s="7">
         <v>2</v>
       </c>
     </row>
@@ -15381,10 +15380,10 @@
       <c r="C343">
         <v>34</v>
       </c>
-      <c r="D343" s="8">
-        <v>1</v>
-      </c>
-      <c r="E343" s="8">
+      <c r="D343" s="7">
+        <v>1</v>
+      </c>
+      <c r="E343" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15398,10 +15397,10 @@
       <c r="C344">
         <v>3</v>
       </c>
-      <c r="D344" s="8">
-        <v>1</v>
-      </c>
-      <c r="E344" s="8">
+      <c r="D344" s="7">
+        <v>1</v>
+      </c>
+      <c r="E344" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15415,10 +15414,10 @@
       <c r="C345">
         <v>23</v>
       </c>
-      <c r="D345" s="8">
-        <v>1</v>
-      </c>
-      <c r="E345" s="8">
+      <c r="D345" s="7">
+        <v>1</v>
+      </c>
+      <c r="E345" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15432,10 +15431,10 @@
       <c r="C346">
         <v>22</v>
       </c>
-      <c r="D346" s="8">
-        <v>1</v>
-      </c>
-      <c r="E346" s="8">
+      <c r="D346" s="7">
+        <v>1</v>
+      </c>
+      <c r="E346" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15449,10 +15448,10 @@
       <c r="C347">
         <v>27</v>
       </c>
-      <c r="D347" s="8">
-        <v>1</v>
-      </c>
-      <c r="E347" s="8">
+      <c r="D347" s="7">
+        <v>1</v>
+      </c>
+      <c r="E347" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15466,10 +15465,10 @@
       <c r="C348">
         <v>27</v>
       </c>
-      <c r="D348" s="8">
-        <v>2</v>
-      </c>
-      <c r="E348" s="8">
+      <c r="D348" s="7">
+        <v>2</v>
+      </c>
+      <c r="E348" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15483,10 +15482,10 @@
       <c r="C349">
         <v>25</v>
       </c>
-      <c r="D349" s="8">
-        <v>2</v>
-      </c>
-      <c r="E349" s="8">
+      <c r="D349" s="7">
+        <v>2</v>
+      </c>
+      <c r="E349" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15500,10 +15499,10 @@
       <c r="C350">
         <v>8</v>
       </c>
-      <c r="D350" s="8">
-        <v>2</v>
-      </c>
-      <c r="E350" s="8">
+      <c r="D350" s="7">
+        <v>2</v>
+      </c>
+      <c r="E350" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15517,10 +15516,10 @@
       <c r="C351">
         <v>12</v>
       </c>
-      <c r="D351" s="8">
-        <v>1</v>
-      </c>
-      <c r="E351" s="8">
+      <c r="D351" s="7">
+        <v>1</v>
+      </c>
+      <c r="E351" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15534,10 +15533,10 @@
       <c r="C352">
         <v>10</v>
       </c>
-      <c r="D352" s="8">
-        <v>3</v>
-      </c>
-      <c r="E352" s="8">
+      <c r="D352" s="7">
+        <v>3</v>
+      </c>
+      <c r="E352" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15874,10 +15873,10 @@
       <c r="C372">
         <v>9</v>
       </c>
-      <c r="D372" s="8">
-        <v>3</v>
-      </c>
-      <c r="E372" s="8">
+      <c r="D372" s="7">
+        <v>3</v>
+      </c>
+      <c r="E372" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15891,10 +15890,10 @@
       <c r="C373">
         <v>5</v>
       </c>
-      <c r="D373" s="8">
-        <v>2</v>
-      </c>
-      <c r="E373" s="8">
+      <c r="D373" s="7">
+        <v>2</v>
+      </c>
+      <c r="E373" s="7">
         <v>1</v>
       </c>
     </row>
@@ -15908,10 +15907,10 @@
       <c r="C374">
         <v>5</v>
       </c>
-      <c r="D374" s="8">
-        <v>4</v>
-      </c>
-      <c r="E374" s="8">
+      <c r="D374" s="7">
+        <v>4</v>
+      </c>
+      <c r="E374" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15925,10 +15924,10 @@
       <c r="C375">
         <v>9</v>
       </c>
-      <c r="D375" s="8">
-        <v>4</v>
-      </c>
-      <c r="E375" s="8">
+      <c r="D375" s="7">
+        <v>4</v>
+      </c>
+      <c r="E375" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15942,10 +15941,10 @@
       <c r="C376">
         <v>5</v>
       </c>
-      <c r="D376" s="8">
-        <v>3</v>
-      </c>
-      <c r="E376" s="8">
+      <c r="D376" s="7">
+        <v>3</v>
+      </c>
+      <c r="E376" s="7">
         <v>1</v>
       </c>
     </row>
@@ -15959,10 +15958,10 @@
       <c r="C377">
         <v>3</v>
       </c>
-      <c r="D377" s="8">
-        <v>1</v>
-      </c>
-      <c r="E377" s="8">
+      <c r="D377" s="7">
+        <v>1</v>
+      </c>
+      <c r="E377" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15976,10 +15975,10 @@
       <c r="C378">
         <v>3</v>
       </c>
-      <c r="D378" s="8">
-        <v>1</v>
-      </c>
-      <c r="E378" s="8">
+      <c r="D378" s="7">
+        <v>1</v>
+      </c>
+      <c r="E378" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15993,10 +15992,10 @@
       <c r="C379">
         <v>3</v>
       </c>
-      <c r="D379" s="8">
-        <v>3</v>
-      </c>
-      <c r="E379" s="8">
+      <c r="D379" s="7">
+        <v>3</v>
+      </c>
+      <c r="E379" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16010,10 +16009,10 @@
       <c r="C380">
         <v>4</v>
       </c>
-      <c r="D380" s="8">
-        <v>2</v>
-      </c>
-      <c r="E380" s="8">
+      <c r="D380" s="7">
+        <v>2</v>
+      </c>
+      <c r="E380" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16027,10 +16026,10 @@
       <c r="C381">
         <v>7</v>
       </c>
-      <c r="D381" s="8">
-        <v>1</v>
-      </c>
-      <c r="E381" s="8">
+      <c r="D381" s="7">
+        <v>1</v>
+      </c>
+      <c r="E381" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16044,10 +16043,10 @@
       <c r="C382">
         <v>3</v>
       </c>
-      <c r="D382" s="8">
-        <v>1</v>
-      </c>
-      <c r="E382" s="8">
+      <c r="D382" s="7">
+        <v>1</v>
+      </c>
+      <c r="E382" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16061,10 +16060,10 @@
       <c r="C383">
         <v>2</v>
       </c>
-      <c r="D383" s="8">
-        <v>1</v>
-      </c>
-      <c r="E383" s="8">
+      <c r="D383" s="7">
+        <v>1</v>
+      </c>
+      <c r="E383" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16078,10 +16077,10 @@
       <c r="C384">
         <v>3</v>
       </c>
-      <c r="D384" s="8">
-        <v>3</v>
-      </c>
-      <c r="E384" s="8">
+      <c r="D384" s="7">
+        <v>3</v>
+      </c>
+      <c r="E384" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16095,10 +16094,10 @@
       <c r="C385">
         <v>3</v>
       </c>
-      <c r="D385" s="8">
-        <v>1</v>
-      </c>
-      <c r="E385" s="8">
+      <c r="D385" s="7">
+        <v>1</v>
+      </c>
+      <c r="E385" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16112,10 +16111,10 @@
       <c r="C386">
         <v>3</v>
       </c>
-      <c r="D386" s="8">
-        <v>1</v>
-      </c>
-      <c r="E386" s="8">
+      <c r="D386" s="7">
+        <v>1</v>
+      </c>
+      <c r="E386" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16129,10 +16128,10 @@
       <c r="C387">
         <v>8</v>
       </c>
-      <c r="D387" s="8">
-        <v>2</v>
-      </c>
-      <c r="E387" s="8">
+      <c r="D387" s="7">
+        <v>2</v>
+      </c>
+      <c r="E387" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16146,10 +16145,10 @@
       <c r="C388">
         <v>8</v>
       </c>
-      <c r="D388" s="8">
-        <v>1</v>
-      </c>
-      <c r="E388" s="8">
+      <c r="D388" s="7">
+        <v>1</v>
+      </c>
+      <c r="E388" s="7">
         <v>3</v>
       </c>
     </row>
@@ -16163,10 +16162,10 @@
       <c r="C389">
         <v>3</v>
       </c>
-      <c r="D389" s="8">
-        <v>2</v>
-      </c>
-      <c r="E389" s="8">
+      <c r="D389" s="7">
+        <v>2</v>
+      </c>
+      <c r="E389" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16180,10 +16179,10 @@
       <c r="C390">
         <v>4</v>
       </c>
-      <c r="D390" s="8">
-        <v>1</v>
-      </c>
-      <c r="E390" s="8">
+      <c r="D390" s="7">
+        <v>1</v>
+      </c>
+      <c r="E390" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16197,10 +16196,10 @@
       <c r="C391">
         <v>5</v>
       </c>
-      <c r="D391" s="8">
-        <v>2</v>
-      </c>
-      <c r="E391" s="8">
+      <c r="D391" s="7">
+        <v>2</v>
+      </c>
+      <c r="E391" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16282,10 +16281,10 @@
       <c r="C396">
         <v>3</v>
       </c>
-      <c r="D396" s="8">
-        <v>2</v>
-      </c>
-      <c r="E396" s="8">
+      <c r="D396" s="7">
+        <v>2</v>
+      </c>
+      <c r="E396" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16299,10 +16298,10 @@
       <c r="C397">
         <v>7</v>
       </c>
-      <c r="D397" s="8">
-        <v>3</v>
-      </c>
-      <c r="E397" s="8">
+      <c r="D397" s="7">
+        <v>3</v>
+      </c>
+      <c r="E397" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16316,10 +16315,10 @@
       <c r="C398">
         <v>1</v>
       </c>
-      <c r="D398" s="8">
-        <v>1</v>
-      </c>
-      <c r="E398" s="8">
+      <c r="D398" s="7">
+        <v>1</v>
+      </c>
+      <c r="E398" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16333,10 +16332,10 @@
       <c r="C399">
         <v>4</v>
       </c>
-      <c r="D399" s="8">
-        <v>1</v>
-      </c>
-      <c r="E399" s="8">
+      <c r="D399" s="7">
+        <v>1</v>
+      </c>
+      <c r="E399" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16350,10 +16349,10 @@
       <c r="C400">
         <v>6</v>
       </c>
-      <c r="D400" s="8">
-        <v>2</v>
-      </c>
-      <c r="E400" s="8">
+      <c r="D400" s="7">
+        <v>2</v>
+      </c>
+      <c r="E400" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16367,10 +16366,10 @@
       <c r="C401">
         <v>11</v>
       </c>
-      <c r="D401" s="8">
-        <v>3</v>
-      </c>
-      <c r="E401" s="8">
+      <c r="D401" s="7">
+        <v>3</v>
+      </c>
+      <c r="E401" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16384,10 +16383,10 @@
       <c r="C402">
         <v>3</v>
       </c>
-      <c r="D402" s="8">
-        <v>2</v>
-      </c>
-      <c r="E402" s="8">
+      <c r="D402" s="7">
+        <v>2</v>
+      </c>
+      <c r="E402" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16401,10 +16400,10 @@
       <c r="C403">
         <v>2</v>
       </c>
-      <c r="D403" s="8">
-        <v>1</v>
-      </c>
-      <c r="E403" s="8">
+      <c r="D403" s="7">
+        <v>1</v>
+      </c>
+      <c r="E403" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16418,10 +16417,10 @@
       <c r="C404">
         <v>2</v>
       </c>
-      <c r="D404" s="8">
-        <v>1</v>
-      </c>
-      <c r="E404" s="8">
+      <c r="D404" s="7">
+        <v>1</v>
+      </c>
+      <c r="E404" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16435,10 +16434,10 @@
       <c r="C405">
         <v>6</v>
       </c>
-      <c r="D405" s="8">
-        <v>1</v>
-      </c>
-      <c r="E405" s="8">
+      <c r="D405" s="7">
+        <v>1</v>
+      </c>
+      <c r="E405" s="7">
         <v>3</v>
       </c>
     </row>
@@ -16452,10 +16451,10 @@
       <c r="C406">
         <v>3</v>
       </c>
-      <c r="D406" s="8">
-        <v>1</v>
-      </c>
-      <c r="E406" s="8">
+      <c r="D406" s="7">
+        <v>1</v>
+      </c>
+      <c r="E406" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16469,10 +16468,10 @@
       <c r="C407">
         <v>3</v>
       </c>
-      <c r="D407" s="8">
-        <v>2</v>
-      </c>
-      <c r="E407" s="8">
+      <c r="D407" s="7">
+        <v>2</v>
+      </c>
+      <c r="E407" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16486,10 +16485,10 @@
       <c r="C408">
         <v>5</v>
       </c>
-      <c r="D408" s="8">
-        <v>1</v>
-      </c>
-      <c r="E408" s="8">
+      <c r="D408" s="7">
+        <v>1</v>
+      </c>
+      <c r="E408" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16503,10 +16502,10 @@
       <c r="C409">
         <v>6</v>
       </c>
-      <c r="D409" s="8">
-        <v>1</v>
-      </c>
-      <c r="E409" s="8">
+      <c r="D409" s="7">
+        <v>1</v>
+      </c>
+      <c r="E409" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16520,10 +16519,10 @@
       <c r="C410">
         <v>5</v>
       </c>
-      <c r="D410" s="8">
-        <v>1</v>
-      </c>
-      <c r="E410" s="8">
+      <c r="D410" s="7">
+        <v>1</v>
+      </c>
+      <c r="E410" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16537,10 +16536,10 @@
       <c r="C411">
         <v>8</v>
       </c>
-      <c r="D411" s="8">
-        <v>2</v>
-      </c>
-      <c r="E411" s="8">
+      <c r="D411" s="7">
+        <v>2</v>
+      </c>
+      <c r="E411" s="7">
         <v>0</v>
       </c>
     </row>
@@ -16554,10 +16553,10 @@
       <c r="C412">
         <v>7</v>
       </c>
-      <c r="D412" s="8">
-        <v>2</v>
-      </c>
-      <c r="E412" s="8">
+      <c r="D412" s="7">
+        <v>2</v>
+      </c>
+      <c r="E412" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17557,10 +17556,10 @@
       <c r="C471">
         <v>3</v>
       </c>
-      <c r="D471" s="8">
-        <v>1</v>
-      </c>
-      <c r="E471" s="8">
+      <c r="D471" s="7">
+        <v>1</v>
+      </c>
+      <c r="E471" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17574,10 +17573,10 @@
       <c r="C472">
         <v>7</v>
       </c>
-      <c r="D472" s="8">
-        <v>4</v>
-      </c>
-      <c r="E472" s="8">
+      <c r="D472" s="7">
+        <v>4</v>
+      </c>
+      <c r="E472" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17591,10 +17590,10 @@
       <c r="C473">
         <v>16</v>
       </c>
-      <c r="D473" s="8">
-        <v>3</v>
-      </c>
-      <c r="E473" s="8">
+      <c r="D473" s="7">
+        <v>3</v>
+      </c>
+      <c r="E473" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17608,10 +17607,10 @@
       <c r="C474">
         <v>7</v>
       </c>
-      <c r="D474" s="8">
-        <v>3</v>
-      </c>
-      <c r="E474" s="8">
+      <c r="D474" s="7">
+        <v>3</v>
+      </c>
+      <c r="E474" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17625,10 +17624,10 @@
       <c r="C475">
         <v>4</v>
       </c>
-      <c r="D475" s="8">
-        <v>3</v>
-      </c>
-      <c r="E475" s="8">
+      <c r="D475" s="7">
+        <v>3</v>
+      </c>
+      <c r="E475" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17642,10 +17641,10 @@
       <c r="C476">
         <v>4</v>
       </c>
-      <c r="D476" s="8">
-        <v>1</v>
-      </c>
-      <c r="E476" s="8">
+      <c r="D476" s="7">
+        <v>1</v>
+      </c>
+      <c r="E476" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17659,10 +17658,10 @@
       <c r="C477">
         <v>4</v>
       </c>
-      <c r="D477" s="8">
-        <v>3</v>
-      </c>
-      <c r="E477" s="8">
+      <c r="D477" s="7">
+        <v>3</v>
+      </c>
+      <c r="E477" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17676,10 +17675,10 @@
       <c r="C478">
         <v>10</v>
       </c>
-      <c r="D478" s="8">
-        <v>4</v>
-      </c>
-      <c r="E478" s="8">
+      <c r="D478" s="7">
+        <v>4</v>
+      </c>
+      <c r="E478" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17693,10 +17692,10 @@
       <c r="C479">
         <v>3</v>
       </c>
-      <c r="D479" s="8">
-        <v>1</v>
-      </c>
-      <c r="E479" s="8">
+      <c r="D479" s="7">
+        <v>1</v>
+      </c>
+      <c r="E479" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17710,10 +17709,10 @@
       <c r="C480">
         <v>4</v>
       </c>
-      <c r="D480" s="8">
-        <v>1</v>
-      </c>
-      <c r="E480" s="8">
+      <c r="D480" s="7">
+        <v>1</v>
+      </c>
+      <c r="E480" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17727,10 +17726,10 @@
       <c r="C481">
         <v>9</v>
       </c>
-      <c r="D481" s="8">
-        <v>2</v>
-      </c>
-      <c r="E481" s="8">
+      <c r="D481" s="7">
+        <v>2</v>
+      </c>
+      <c r="E481" s="7">
         <v>3</v>
       </c>
     </row>
@@ -17744,10 +17743,10 @@
       <c r="C482">
         <v>3</v>
       </c>
-      <c r="D482" s="8">
-        <v>2</v>
-      </c>
-      <c r="E482" s="8">
+      <c r="D482" s="7">
+        <v>2</v>
+      </c>
+      <c r="E482" s="7">
         <v>1</v>
       </c>
     </row>
@@ -17761,10 +17760,10 @@
       <c r="C483">
         <v>9</v>
       </c>
-      <c r="D483" s="8">
-        <v>2</v>
-      </c>
-      <c r="E483" s="8">
+      <c r="D483" s="7">
+        <v>2</v>
+      </c>
+      <c r="E483" s="7">
         <v>2</v>
       </c>
     </row>
@@ -17778,10 +17777,10 @@
       <c r="C484">
         <v>4</v>
       </c>
-      <c r="D484" s="8">
-        <v>3</v>
-      </c>
-      <c r="E484" s="8">
+      <c r="D484" s="7">
+        <v>3</v>
+      </c>
+      <c r="E484" s="7">
         <v>1</v>
       </c>
     </row>
@@ -17795,10 +17794,10 @@
       <c r="C485">
         <v>4</v>
       </c>
-      <c r="D485" s="8">
-        <v>3</v>
-      </c>
-      <c r="E485" s="8">
+      <c r="D485" s="7">
+        <v>3</v>
+      </c>
+      <c r="E485" s="7">
         <v>0</v>
       </c>
     </row>
@@ -17812,10 +17811,10 @@
       <c r="C486">
         <v>16</v>
       </c>
-      <c r="D486" s="8">
-        <v>2</v>
-      </c>
-      <c r="E486" s="8">
+      <c r="D486" s="7">
+        <v>2</v>
+      </c>
+      <c r="E486" s="7">
         <v>2</v>
       </c>
     </row>
@@ -17829,10 +17828,10 @@
       <c r="C487">
         <v>14</v>
       </c>
-      <c r="D487" s="8">
-        <v>3</v>
-      </c>
-      <c r="E487" s="8">
+      <c r="D487" s="7">
+        <v>3</v>
+      </c>
+      <c r="E487" s="7">
         <v>1</v>
       </c>
     </row>
@@ -17846,10 +17845,10 @@
       <c r="C488">
         <v>2</v>
       </c>
-      <c r="D488" s="8">
-        <v>1</v>
-      </c>
-      <c r="E488" s="8">
+      <c r="D488" s="7">
+        <v>1</v>
+      </c>
+      <c r="E488" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18166,7 +18165,7 @@
       <c r="B507">
         <v>19</v>
       </c>
-      <c r="C507" s="3">
+      <c r="C507" s="2">
         <v>6</v>
       </c>
       <c r="D507">
@@ -18237,10 +18236,10 @@
       <c r="C511">
         <v>7</v>
       </c>
-      <c r="D511" s="8">
-        <v>4</v>
-      </c>
-      <c r="E511" s="8">
+      <c r="D511" s="7">
+        <v>4</v>
+      </c>
+      <c r="E511" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18254,10 +18253,10 @@
       <c r="C512">
         <v>4</v>
       </c>
-      <c r="D512" s="8">
-        <v>1</v>
-      </c>
-      <c r="E512" s="8">
+      <c r="D512" s="7">
+        <v>1</v>
+      </c>
+      <c r="E512" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18271,10 +18270,10 @@
       <c r="C513">
         <v>2</v>
       </c>
-      <c r="D513" s="8">
-        <v>1</v>
-      </c>
-      <c r="E513" s="8">
+      <c r="D513" s="7">
+        <v>1</v>
+      </c>
+      <c r="E513" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18288,10 +18287,10 @@
       <c r="C514">
         <v>6</v>
       </c>
-      <c r="D514" s="8">
-        <v>1</v>
-      </c>
-      <c r="E514" s="8">
+      <c r="D514" s="7">
+        <v>1</v>
+      </c>
+      <c r="E514" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18305,10 +18304,10 @@
       <c r="C515">
         <v>8</v>
       </c>
-      <c r="D515" s="8">
-        <v>2</v>
-      </c>
-      <c r="E515" s="8">
+      <c r="D515" s="7">
+        <v>2</v>
+      </c>
+      <c r="E515" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18322,10 +18321,10 @@
       <c r="C516">
         <v>3</v>
       </c>
-      <c r="D516" s="8">
-        <v>3</v>
-      </c>
-      <c r="E516" s="8">
+      <c r="D516" s="7">
+        <v>3</v>
+      </c>
+      <c r="E516" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18339,10 +18338,10 @@
       <c r="C517">
         <v>2</v>
       </c>
-      <c r="D517" s="8">
-        <v>1</v>
-      </c>
-      <c r="E517" s="8">
+      <c r="D517" s="7">
+        <v>1</v>
+      </c>
+      <c r="E517" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18356,10 +18355,10 @@
       <c r="C518">
         <v>5</v>
       </c>
-      <c r="D518" s="8">
-        <v>3</v>
-      </c>
-      <c r="E518" s="8">
+      <c r="D518" s="7">
+        <v>3</v>
+      </c>
+      <c r="E518" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18373,10 +18372,10 @@
       <c r="C519">
         <v>4</v>
       </c>
-      <c r="D519" s="8">
-        <v>3</v>
-      </c>
-      <c r="E519" s="8">
+      <c r="D519" s="7">
+        <v>3</v>
+      </c>
+      <c r="E519" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18390,10 +18389,10 @@
       <c r="C520">
         <v>3</v>
       </c>
-      <c r="D520" s="8">
-        <v>2</v>
-      </c>
-      <c r="E520" s="8">
+      <c r="D520" s="7">
+        <v>2</v>
+      </c>
+      <c r="E520" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18407,10 +18406,10 @@
       <c r="C521">
         <v>1</v>
       </c>
-      <c r="D521" s="8">
-        <v>1</v>
-      </c>
-      <c r="E521" s="8">
+      <c r="D521" s="7">
+        <v>1</v>
+      </c>
+      <c r="E521" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18424,10 +18423,10 @@
       <c r="C522">
         <v>3</v>
       </c>
-      <c r="D522" s="8">
-        <v>1</v>
-      </c>
-      <c r="E522" s="8">
+      <c r="D522" s="7">
+        <v>1</v>
+      </c>
+      <c r="E522" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18441,10 +18440,10 @@
       <c r="C523">
         <v>2</v>
       </c>
-      <c r="D523" s="8">
-        <v>2</v>
-      </c>
-      <c r="E523" s="8">
+      <c r="D523" s="7">
+        <v>2</v>
+      </c>
+      <c r="E523" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18458,10 +18457,10 @@
       <c r="C524">
         <v>7</v>
       </c>
-      <c r="D524" s="8">
-        <v>4</v>
-      </c>
-      <c r="E524" s="8">
+      <c r="D524" s="7">
+        <v>4</v>
+      </c>
+      <c r="E524" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18475,10 +18474,10 @@
       <c r="C525">
         <v>4</v>
       </c>
-      <c r="D525" s="8">
-        <v>2</v>
-      </c>
-      <c r="E525" s="8">
+      <c r="D525" s="7">
+        <v>2</v>
+      </c>
+      <c r="E525" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18492,10 +18491,10 @@
       <c r="C526">
         <v>4</v>
       </c>
-      <c r="D526" s="8">
-        <v>3</v>
-      </c>
-      <c r="E526" s="8">
+      <c r="D526" s="7">
+        <v>3</v>
+      </c>
+      <c r="E526" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18509,10 +18508,10 @@
       <c r="C527">
         <v>1</v>
       </c>
-      <c r="D527" s="8">
-        <v>1</v>
-      </c>
-      <c r="E527" s="8">
+      <c r="D527" s="7">
+        <v>1</v>
+      </c>
+      <c r="E527" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18526,10 +18525,10 @@
       <c r="C528">
         <v>3</v>
       </c>
-      <c r="D528" s="8">
-        <v>3</v>
-      </c>
-      <c r="E528" s="8">
+      <c r="D528" s="7">
+        <v>3</v>
+      </c>
+      <c r="E528" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18543,10 +18542,10 @@
       <c r="C529">
         <v>2</v>
       </c>
-      <c r="D529" s="8">
-        <v>1</v>
-      </c>
-      <c r="E529" s="8">
+      <c r="D529" s="7">
+        <v>1</v>
+      </c>
+      <c r="E529" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18560,10 +18559,10 @@
       <c r="C530">
         <v>5</v>
       </c>
-      <c r="D530" s="8">
-        <v>1</v>
-      </c>
-      <c r="E530" s="8">
+      <c r="D530" s="7">
+        <v>1</v>
+      </c>
+      <c r="E530" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18577,10 +18576,10 @@
       <c r="C531">
         <v>9</v>
       </c>
-      <c r="D531" s="8">
+      <c r="D531" s="7">
         <v>6</v>
       </c>
-      <c r="E531" s="8">
+      <c r="E531" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18594,10 +18593,10 @@
       <c r="C532">
         <v>8</v>
       </c>
-      <c r="D532" s="8">
-        <v>3</v>
-      </c>
-      <c r="E532" s="8">
+      <c r="D532" s="7">
+        <v>3</v>
+      </c>
+      <c r="E532" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18611,10 +18610,10 @@
       <c r="C533">
         <v>4</v>
       </c>
-      <c r="D533" s="8">
-        <v>1</v>
-      </c>
-      <c r="E533" s="8">
+      <c r="D533" s="7">
+        <v>1</v>
+      </c>
+      <c r="E533" s="7">
         <v>1</v>
       </c>
     </row>
@@ -18628,10 +18627,10 @@
       <c r="C534">
         <v>8</v>
       </c>
-      <c r="D534" s="8">
-        <v>3</v>
-      </c>
-      <c r="E534" s="8">
+      <c r="D534" s="7">
+        <v>3</v>
+      </c>
+      <c r="E534" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18645,10 +18644,10 @@
       <c r="C535">
         <v>15</v>
       </c>
-      <c r="D535" s="8">
-        <v>2</v>
-      </c>
-      <c r="E535" s="8">
+      <c r="D535" s="7">
+        <v>2</v>
+      </c>
+      <c r="E535" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18662,10 +18661,10 @@
       <c r="C536">
         <v>6</v>
       </c>
-      <c r="D536" s="8">
-        <v>4</v>
-      </c>
-      <c r="E536" s="8">
+      <c r="D536" s="7">
+        <v>4</v>
+      </c>
+      <c r="E536" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18679,10 +18678,10 @@
       <c r="C537">
         <v>3</v>
       </c>
-      <c r="D537" s="8">
-        <v>2</v>
-      </c>
-      <c r="E537" s="8">
+      <c r="D537" s="7">
+        <v>2</v>
+      </c>
+      <c r="E537" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18696,10 +18695,10 @@
       <c r="C538">
         <v>7</v>
       </c>
-      <c r="D538" s="8">
-        <v>3</v>
-      </c>
-      <c r="E538" s="8">
+      <c r="D538" s="7">
+        <v>3</v>
+      </c>
+      <c r="E538" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18713,10 +18712,10 @@
       <c r="C539">
         <v>2</v>
       </c>
-      <c r="D539" s="8">
-        <v>1</v>
-      </c>
-      <c r="E539" s="8">
+      <c r="D539" s="7">
+        <v>1</v>
+      </c>
+      <c r="E539" s="7">
         <v>1</v>
       </c>
     </row>
@@ -18730,10 +18729,10 @@
       <c r="C540">
         <v>10</v>
       </c>
-      <c r="D540" s="8">
-        <v>1</v>
-      </c>
-      <c r="E540" s="8">
+      <c r="D540" s="7">
+        <v>1</v>
+      </c>
+      <c r="E540" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18747,10 +18746,10 @@
       <c r="C541">
         <v>3</v>
       </c>
-      <c r="D541" s="8">
-        <v>1</v>
-      </c>
-      <c r="E541" s="8">
+      <c r="D541" s="7">
+        <v>1</v>
+      </c>
+      <c r="E541" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18764,10 +18763,10 @@
       <c r="C542">
         <v>6</v>
       </c>
-      <c r="D542" s="8">
-        <v>3</v>
-      </c>
-      <c r="E542" s="8">
+      <c r="D542" s="7">
+        <v>3</v>
+      </c>
+      <c r="E542" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18781,10 +18780,10 @@
       <c r="C543">
         <v>4</v>
       </c>
-      <c r="D543" s="8">
-        <v>2</v>
-      </c>
-      <c r="E543" s="8">
+      <c r="D543" s="7">
+        <v>2</v>
+      </c>
+      <c r="E543" s="7">
         <v>0</v>
       </c>
     </row>
@@ -25313,70 +25312,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E34E0C4-553F-D04E-8C63-0CE0F38FFD6B}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -25387,10 +25386,10 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>262</v>
       </c>
       <c r="E2" s="1">
@@ -25443,10 +25442,10 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>264</v>
       </c>
       <c r="E3" s="1">
@@ -25499,17 +25498,17 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>266</v>
       </c>
       <c r="E4" s="1">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
+      <c r="F4" s="5">
+        <v>0.62847222222222221</v>
       </c>
       <c r="G4" t="s">
         <v>193</v>
@@ -25549,168 +25548,168 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>22</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>268</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="E6" s="1">
-        <v>0.47569444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F6" s="1">
-        <v>0.47569444444444442</v>
+        <v>0.625</v>
       </c>
       <c r="G6" t="s">
         <v>193</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="P6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>258</v>
+        <v>173</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="G7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7">
-        <v>66</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7">
-        <v>107</v>
-      </c>
       <c r="P7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -25718,167 +25717,167 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.56805555555555554</v>
-      </c>
-      <c r="G8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>134</v>
+      </c>
+      <c r="P8">
         <v>61</v>
       </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
       <c r="Q8">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9">
+        <v>61</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
       </c>
       <c r="O9">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="P9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Q9">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>274</v>
+      <c r="C10" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="E10" s="1">
-        <v>0.40277777777777773</v>
+        <v>0.59375</v>
       </c>
       <c r="F10" s="1">
-        <v>0.40277777777777773</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O10">
-        <v>311</v>
+        <v>127</v>
       </c>
       <c r="P10">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="Q10">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -25886,55 +25885,55 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>276</v>
+        <v>53</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="E11" s="1">
-        <v>0.59375</v>
+        <v>0.3979166666666667</v>
       </c>
       <c r="F11" s="1">
-        <v>0.59027777777777779</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="G11" t="s">
         <v>180</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
         <v>193</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O11">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="Q11">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -25942,43 +25941,43 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>278</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="E12" s="1">
-        <v>0.3979166666666667</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="F12" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="G12" t="s">
         <v>180</v>
       </c>
       <c r="H12">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L12">
         <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
         <v>37</v>
@@ -25987,7 +25986,7 @@
         <v>3</v>
       </c>
       <c r="P12">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -25998,391 +25997,391 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>280</v>
+      <c r="C13" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="E13" s="1">
-        <v>0.59722222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0.59722222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="s">
         <v>180</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
       </c>
       <c r="K13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="G15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
         <v>180</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>54</v>
       </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15">
+        <v>368</v>
+      </c>
+      <c r="P15">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14">
-        <v>62</v>
-      </c>
-      <c r="M14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>284</v>
+      <c r="C16" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="E16" s="1">
-        <v>0.40625</v>
+        <v>0.5625</v>
       </c>
       <c r="F16" s="1">
-        <v>0.40625</v>
+        <v>0.5625</v>
       </c>
       <c r="G16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
         <v>193</v>
       </c>
-      <c r="H16">
-        <v>58</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" t="s">
-        <v>180</v>
-      </c>
       <c r="L16">
-        <v>54</v>
-      </c>
-      <c r="M16" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O16">
-        <v>368</v>
+        <v>202</v>
       </c>
       <c r="P16">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="14">
+        <v>105</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>286</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>288</v>
       </c>
       <c r="E17" s="1">
-        <v>0.5625</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="F17" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="G17" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <v>175</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>17</v>
+      </c>
+      <c r="R17" t="s">
         <v>64</v>
-      </c>
-      <c r="I17">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17">
-        <v>39</v>
-      </c>
-      <c r="M17">
-        <v>12</v>
-      </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17">
-        <v>202</v>
-      </c>
-      <c r="P17">
-        <v>105</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>288</v>
+        <v>254</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="E18" s="1">
-        <v>0.63888888888888895</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F18" s="1">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>22</v>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" t="s">
+        <v>124</v>
       </c>
       <c r="O18">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
-      </c>
-      <c r="R18" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19">
+        <v>39</v>
+      </c>
+      <c r="I19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="G19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19">
-        <v>43</v>
-      </c>
-      <c r="I19" t="s">
-        <v>211</v>
-      </c>
       <c r="J19" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
         <v>180</v>
       </c>
       <c r="L19">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>177</v>
-      </c>
-      <c r="N19" t="s">
-        <v>124</v>
+        <v>211</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -26390,52 +26389,52 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>292</v>
+      <c r="C20" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="E20" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F20" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H20">
-        <v>39</v>
-      </c>
-      <c r="I20">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>251</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="K20" t="s">
         <v>180</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
+        <v>253</v>
+      </c>
+      <c r="N20" t="s">
+        <v>242</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -26446,55 +26445,55 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>294</v>
+        <v>246</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="E21" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="F21" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s">
         <v>180</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -26502,55 +26501,55 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>296</v>
+        <v>210</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="E22" s="1">
-        <v>0.43402777777777773</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F22" s="1">
-        <v>0.43402777777777773</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M22" t="s">
-        <v>249</v>
-      </c>
-      <c r="N22" t="s">
-        <v>44</v>
+        <v>243</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="P22">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="Q22">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -26558,55 +26557,55 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>298</v>
+      <c r="C23" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4548611111111111</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="F23" s="1">
-        <v>0.4548611111111111</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="G23" t="s">
         <v>193</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L23">
-        <v>58</v>
-      </c>
-      <c r="M23" t="s">
-        <v>243</v>
+        <v>55</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="P23">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -26614,52 +26613,52 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>300</v>
+        <v>235</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="E24" s="1">
-        <v>0.53819444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="F24" s="1">
-        <v>0.53819444444444442</v>
+        <v>0.45069444444444445</v>
       </c>
       <c r="G24" t="s">
         <v>193</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s">
         <v>180</v>
       </c>
       <c r="L24">
-        <v>55</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="M24" t="s">
+        <v>240</v>
+      </c>
+      <c r="N24" t="s">
+        <v>81</v>
       </c>
       <c r="O24">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="P24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -26670,55 +26669,55 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>302</v>
+        <v>254</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="E25" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="F25" s="1">
-        <v>0.45069444444444445</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="G25" t="s">
         <v>193</v>
       </c>
       <c r="H25">
-        <v>52</v>
-      </c>
-      <c r="I25" t="s">
-        <v>239</v>
-      </c>
-      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L25">
-        <v>56</v>
-      </c>
-      <c r="M25" t="s">
-        <v>240</v>
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
       </c>
       <c r="N25" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -26726,55 +26725,55 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>304</v>
+        <v>244</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="E26" s="1">
-        <v>0.56805555555555554</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F26" s="1">
-        <v>0.56805555555555554</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H26">
-        <v>55</v>
-      </c>
-      <c r="I26">
-        <v>19</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
       </c>
       <c r="K26" t="s">
         <v>193</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q26">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -26782,55 +26781,55 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>306</v>
+      <c r="C27" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="E27" s="1">
-        <v>0.57638888888888895</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="F27" s="1">
-        <v>0.57638888888888895</v>
+        <v>0.49236111111111108</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H27">
         <v>62</v>
       </c>
-      <c r="I27" t="s">
-        <v>240</v>
+      <c r="I27">
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="P27">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="Q27">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -26838,34 +26837,34 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>308</v>
+        <v>235</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="E28" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="F28" s="1">
-        <v>0.49236111111111108</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H28">
-        <v>62</v>
-      </c>
-      <c r="I28">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
         <v>180</v>
@@ -26874,19 +26873,19 @@
         <v>58</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="O28">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -26894,55 +26893,55 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>310</v>
+        <v>246</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>312</v>
       </c>
       <c r="E29" s="1">
-        <v>0.54305555555555551</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="F29" s="1">
-        <v>0.54305555555555551</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="G29" t="s">
         <v>180</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
         <v>180</v>
       </c>
       <c r="L29">
-        <v>58</v>
-      </c>
-      <c r="M29">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q29">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -26950,55 +26949,55 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>312</v>
+        <v>127</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="E30" s="1">
-        <v>0.5083333333333333</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F30" s="1">
-        <v>0.5083333333333333</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="G30" t="s">
         <v>180</v>
       </c>
       <c r="H30">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L30">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="N30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -27006,217 +27005,217 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>314</v>
+      <c r="C31" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="E31" s="1">
-        <v>0.51388888888888895</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="F31" s="1">
-        <v>0.51388888888888895</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="G31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
         <v>180</v>
       </c>
-      <c r="H31">
-        <v>69</v>
-      </c>
-      <c r="I31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" t="s">
-        <v>193</v>
-      </c>
       <c r="L31">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>129</v>
-      </c>
-      <c r="N31" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>316</v>
+        <v>120</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="E32" s="1">
-        <v>0.65972222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="F32" s="1">
-        <v>0.65972222222222221</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="G32" t="s">
         <v>193</v>
       </c>
       <c r="H32">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L32">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="N32" t="s">
+        <v>64</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>318</v>
+      <c r="C33" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="E33" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="F33" s="1">
-        <v>0.4916666666666667</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="G33" t="s">
         <v>193</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K33" t="s">
         <v>193</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>320</v>
+        <v>196</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="E34" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.6</v>
       </c>
       <c r="F34" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="G34" t="s">
         <v>193</v>
       </c>
       <c r="H34">
-        <v>50</v>
-      </c>
-      <c r="I34" t="s">
-        <v>121</v>
+        <v>47</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="J34" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="K34" t="s">
         <v>193</v>
       </c>
       <c r="L34">
-        <v>39</v>
-      </c>
-      <c r="M34" t="s">
-        <v>122</v>
+        <v>51</v>
+      </c>
+      <c r="M34">
+        <v>11</v>
       </c>
       <c r="N34" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="O34">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>4</v>
@@ -27230,335 +27229,335 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>322</v>
+        <v>185</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="E35" s="1">
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F35" s="1">
-        <v>0.59930555555555554</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G35" t="s">
         <v>193</v>
       </c>
       <c r="H35">
-        <v>47</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
+        <v>186</v>
       </c>
       <c r="J35" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L35">
-        <v>51</v>
-      </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
-      <c r="N35" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="M35" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>324</v>
+      <c r="C36" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="E36" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="F36" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="G36" t="s">
         <v>193</v>
       </c>
       <c r="H36">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J36" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36">
+        <v>64</v>
+      </c>
+      <c r="M36" t="s">
+        <v>189</v>
+      </c>
+      <c r="N36" t="s">
+        <v>190</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="L36">
-        <v>55</v>
-      </c>
-      <c r="M36" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>16</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="H37" s="8">
+        <v>64</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="K37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L37" s="8">
+        <v>60</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" s="8">
+        <v>5</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="G39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" t="s">
         <v>193</v>
       </c>
-      <c r="H37">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37">
-        <v>64</v>
-      </c>
-      <c r="M37" t="s">
-        <v>189</v>
-      </c>
-      <c r="N37" t="s">
-        <v>190</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>3</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" s="9">
-        <v>64</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L38" s="9">
-        <v>60</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="O38" s="9">
-        <v>5</v>
-      </c>
-      <c r="P38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="4">
-        <v>0</v>
-      </c>
-      <c r="P39" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>0</v>
-      </c>
-      <c r="R39" s="4">
+      <c r="L39">
+        <v>43</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39">
+        <v>87</v>
+      </c>
+      <c r="P39">
+        <v>76</v>
+      </c>
+      <c r="Q39">
+        <v>25</v>
+      </c>
+      <c r="R39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>332</v>
+        <v>174</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="E40" s="1">
-        <v>0.44513888888888892</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="F40" s="1">
-        <v>0.4465277777777778</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="J40" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="K40" t="s">
         <v>193</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="N40" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="O40">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -27566,445 +27565,445 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>334</v>
+        <v>219</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>336</v>
       </c>
       <c r="E41" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4375</v>
       </c>
       <c r="F41" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4375</v>
       </c>
       <c r="G41" t="s">
         <v>193</v>
       </c>
       <c r="H41">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J41" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="K41" t="s">
         <v>193</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="N41" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>336</v>
+      <c r="C42" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="E42" s="1">
-        <v>0.4375</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F42" s="1">
-        <v>0.4375</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G42" t="s">
         <v>193</v>
       </c>
       <c r="H42">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="J42" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s">
         <v>193</v>
       </c>
       <c r="L42">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N42" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="O42">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P42">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>338</v>
+        <v>24</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>340</v>
       </c>
       <c r="E43" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F43" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="G43" t="s">
         <v>193</v>
       </c>
       <c r="H43">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
         <v>193</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="N43" t="s">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="O43">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G45" t="s">
         <v>193</v>
       </c>
-      <c r="H44">
-        <v>66</v>
-      </c>
-      <c r="I44" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="H45">
+        <v>59</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" t="s">
         <v>193</v>
       </c>
-      <c r="L44">
-        <v>61</v>
-      </c>
-      <c r="M44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44">
-        <v>83</v>
-      </c>
-      <c r="P44">
-        <v>80</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0.55763888888888891</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45" s="4">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0</v>
-      </c>
-      <c r="R45" s="4">
+      <c r="L45">
+        <v>58</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" t="s">
+        <v>124</v>
+      </c>
+      <c r="O45">
+        <v>111</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>13</v>
+      </c>
+      <c r="R45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>344</v>
+      <c r="C46" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="E46" s="1">
-        <v>0.63472222222222219</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="F46" s="1">
-        <v>0.63472222222222219</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="G46" t="s">
         <v>193</v>
       </c>
       <c r="H46">
-        <v>59</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>134</v>
       </c>
       <c r="J46" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s">
         <v>193</v>
       </c>
       <c r="L46">
-        <v>58</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
+      </c>
+      <c r="M46" t="s">
+        <v>135</v>
       </c>
       <c r="N46" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="O46">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>346</v>
+        <v>179</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="E47" s="1">
-        <v>0.4826388888888889</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F47" s="1">
-        <v>0.4826388888888889</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H47">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="J47" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="K47" t="s">
         <v>193</v>
       </c>
       <c r="L47">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M47" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="N47" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="O47">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="P47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="R47">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>348</v>
+        <v>227</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="E48" s="1">
-        <v>0.63541666666666663</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="F48" s="1">
-        <v>0.63541666666666663</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H48">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
-      </c>
-      <c r="J48" t="s">
-        <v>182</v>
+        <v>228</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
       </c>
       <c r="K48" t="s">
         <v>193</v>
       </c>
       <c r="L48">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M48" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="N48" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="O48">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="Q48">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -28012,55 +28011,55 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>350</v>
+        <v>185</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="E49" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="F49" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="G49" t="s">
         <v>193</v>
       </c>
       <c r="H49">
-        <v>62</v>
-      </c>
-      <c r="I49" t="s">
-        <v>228</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="I49">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L49">
         <v>59</v>
       </c>
       <c r="M49" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N49" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O49">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="P49">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -28068,55 +28067,55 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>352</v>
+        <v>213</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="E50" s="1">
-        <v>0.56458333333333333</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="F50" s="1">
-        <v>0.56458333333333333</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="G50" t="s">
         <v>193</v>
       </c>
       <c r="H50">
-        <v>55</v>
-      </c>
-      <c r="I50">
+        <v>59</v>
+      </c>
+      <c r="I50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" t="s">
+        <v>193</v>
+      </c>
+      <c r="L50">
+        <v>61</v>
+      </c>
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50" t="s">
+        <v>234</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>14</v>
-      </c>
-      <c r="J50" t="s">
-        <v>37</v>
-      </c>
-      <c r="K50" t="s">
-        <v>180</v>
-      </c>
-      <c r="L50">
-        <v>59</v>
-      </c>
-      <c r="M50" t="s">
-        <v>225</v>
-      </c>
-      <c r="N50" t="s">
-        <v>226</v>
-      </c>
-      <c r="O50">
-        <v>36</v>
-      </c>
-      <c r="P50">
-        <v>18</v>
-      </c>
-      <c r="Q50">
-        <v>117</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -28124,55 +28123,55 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>354</v>
+        <v>179</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="E51" s="1">
-        <v>0.58194444444444449</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F51" s="1">
-        <v>0.58194444444444449</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="G51" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H51">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="K51" t="s">
         <v>193</v>
       </c>
       <c r="L51">
-        <v>61</v>
-      </c>
-      <c r="M51">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="M51" t="s">
+        <v>194</v>
       </c>
       <c r="N51" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -28180,55 +28179,55 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>356</v>
+        <v>198</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="E52" s="1">
-        <v>0.47222222222222227</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F52" s="1">
-        <v>0.47222222222222227</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="G52" t="s">
         <v>180</v>
       </c>
       <c r="H52">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J52" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K52" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L52">
-        <v>68</v>
-      </c>
-      <c r="M52" t="s">
-        <v>194</v>
+        <v>56</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
       </c>
       <c r="N52" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="O52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P52">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>394</v>
+        <v>149</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -28236,55 +28235,55 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>358</v>
+      <c r="C53" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="E53" s="1">
-        <v>0.60416666666666663</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="F53" s="1">
-        <v>0.60416666666666663</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H53">
-        <v>56</v>
-      </c>
-      <c r="I53" t="s">
-        <v>201</v>
+        <v>49</v>
+      </c>
+      <c r="I53">
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K53" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L53">
-        <v>56</v>
-      </c>
-      <c r="M53">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="M53" t="s">
+        <v>200</v>
       </c>
       <c r="N53" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="O53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -28292,31 +28291,31 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>360</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>362</v>
       </c>
       <c r="E54" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F54" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="G54" t="s">
         <v>193</v>
       </c>
       <c r="H54">
-        <v>49</v>
-      </c>
-      <c r="I54">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="I54" t="s">
+        <v>38</v>
       </c>
       <c r="J54" t="s">
         <v>199</v>
@@ -28325,197 +28324,141 @@
         <v>193</v>
       </c>
       <c r="L54">
-        <v>50</v>
-      </c>
-      <c r="M54" t="s">
-        <v>200</v>
+        <v>62</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
       </c>
       <c r="N54" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="O54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q54">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="C55" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H55" s="8">
+        <v>62</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L55" s="8">
+        <v>64</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O55" s="8">
+        <v>10</v>
+      </c>
+      <c r="P55" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>15</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G56" t="s">
         <v>193</v>
       </c>
-      <c r="H55">
+      <c r="H56">
+        <v>58</v>
+      </c>
+      <c r="I56" t="s">
         <v>61</v>
       </c>
-      <c r="I55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J55" t="s">
-        <v>199</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s">
         <v>193</v>
       </c>
-      <c r="L55">
-        <v>62</v>
-      </c>
-      <c r="M55">
-        <v>9</v>
-      </c>
-      <c r="N55" t="s">
-        <v>218</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>22</v>
-      </c>
-      <c r="Q55">
-        <v>68</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
-        <v>54</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H56" s="9">
-        <v>62</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J56" s="9">
-        <v>1</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L56" s="9">
-        <v>64</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O56" s="9">
-        <v>10</v>
-      </c>
-      <c r="P56" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="9">
-        <v>15</v>
-      </c>
-      <c r="R56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="G57" t="s">
-        <v>193</v>
-      </c>
-      <c r="H57">
-        <v>58</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
-      <c r="J57" t="s">
-        <v>81</v>
-      </c>
-      <c r="K57" t="s">
-        <v>193</v>
-      </c>
-      <c r="L57">
+      <c r="L56">
         <v>44</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M56" t="s">
         <v>214</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N56" t="s">
         <v>215</v>
       </c>
-      <c r="O57">
+      <c r="O56">
         <v>13</v>
       </c>
-      <c r="P57">
-        <v>2</v>
-      </c>
-      <c r="Q57">
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
         <v>6</v>
       </c>
-      <c r="R57">
+      <c r="R56">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data_raw/Dataset.xlsx
+++ b/data_raw/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyastrydom/Documents/Uni/Uni/Thesis/ForestMicroclim/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6FDC33-141E-1A47-A414-0D94C6B33B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D81BE3-CD4A-3941-B797-A297FC19BFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{0AD33F6C-2F77-AD46-8804-76E63C7D8230}"/>
   </bookViews>
@@ -25318,7 +25318,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25759,7 +25759,7 @@
         <v>22</v>
       </c>
       <c r="O8">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P8">
         <v>61</v>
@@ -25815,7 +25815,7 @@
         <v>43</v>
       </c>
       <c r="O9">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="P9">
         <v>43</v>
@@ -25871,7 +25871,7 @@
         <v>45</v>
       </c>
       <c r="O10">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="P10">
         <v>27</v>
@@ -25927,7 +25927,7 @@
         <v>37</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="P11">
         <v>161</v>
@@ -26039,7 +26039,7 @@
         <v>39</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="P13">
         <v>2</v>
